--- a/medicine/Psychotrope/Ébourgeonnage/Ébourgeonnage.xlsx
+++ b/medicine/Psychotrope/Ébourgeonnage/Ébourgeonnage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89bourgeonnage</t>
+          <t>Ébourgeonnage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ébourgeonnage est une opération effectuée sur la vigne après le débourrement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89bourgeonnage</t>
+          <t>Ébourgeonnage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Principe et but</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle consiste à supprimer certaines pousses indésirables (gourmands, double et triple bourres ou pousses) situées sur le courson, la baguette et le bois de l'année précédente. Le viticulteur se fixe un nombre de départ de rameaux par pied et passe dans toute la parcelle pour supprimer les pousses en trop. Cette méthode permet, en partie, de réguler les rendements[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle consiste à supprimer certaines pousses indésirables (gourmands, double et triple bourres ou pousses) situées sur le courson, la baguette et le bois de l'année précédente. Le viticulteur se fixe un nombre de départ de rameaux par pied et passe dans toute la parcelle pour supprimer les pousses en trop. Cette méthode permet, en partie, de réguler les rendements.
 Cette action est souvent combinée à l'épamprage, qui consiste à supprimer toutes les pousses ayant démarré sur le vieux bois.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89bourgeonnage</t>
+          <t>Ébourgeonnage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Période</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après le débourrement de la vigne, environ de mi-avril à fin mai.
 </t>
